--- a/Results/Bayes_MPS_summary.xlsx
+++ b/Results/Bayes_MPS_summary.xlsx
@@ -416,7 +416,7 @@
         </is>
       </c>
       <c r="B2">
-        <v>-0.05</v>
+        <v>-0.053</v>
       </c>
       <c r="C2">
         <v>0.367</v>
@@ -428,19 +428,19 @@
         <v>0.003</v>
       </c>
       <c r="F2">
-        <v>-0.775</v>
+        <v>-0.777</v>
       </c>
       <c r="G2">
-        <v>-0.294</v>
+        <v>-0.298</v>
       </c>
       <c r="H2">
-        <v>-0.049</v>
+        <v>-0.051</v>
       </c>
       <c r="I2">
-        <v>0.194</v>
+        <v>0.192</v>
       </c>
       <c r="J2">
-        <v>0.671</v>
+        <v>0.664</v>
       </c>
     </row>
     <row r="3">
@@ -450,10 +450,10 @@
         </is>
       </c>
       <c r="B3">
-        <v>-0.478</v>
+        <v>-0.476</v>
       </c>
       <c r="C3">
-        <v>0.354</v>
+        <v>0.353</v>
       </c>
       <c r="D3">
         <v>0.001</v>
@@ -462,19 +462,19 @@
         <v>0.003</v>
       </c>
       <c r="F3">
-        <v>-1.176</v>
+        <v>-1.174</v>
       </c>
       <c r="G3">
-        <v>-0.715</v>
+        <v>-0.711</v>
       </c>
       <c r="H3">
         <v>-0.477</v>
       </c>
       <c r="I3">
-        <v>-0.24</v>
+        <v>-0.241</v>
       </c>
       <c r="J3">
-        <v>0.217</v>
+        <v>0.219</v>
       </c>
     </row>
     <row r="4">
@@ -484,10 +484,10 @@
         </is>
       </c>
       <c r="B4">
-        <v>-0.024</v>
+        <v>-0.026</v>
       </c>
       <c r="C4">
-        <v>0.349</v>
+        <v>0.347</v>
       </c>
       <c r="D4">
         <v>0.001</v>
@@ -496,19 +496,19 @@
         <v>0.003</v>
       </c>
       <c r="F4">
-        <v>-0.709</v>
+        <v>-0.712</v>
       </c>
       <c r="G4">
-        <v>-0.256</v>
+        <v>-0.258</v>
       </c>
       <c r="H4">
         <v>-0.024</v>
       </c>
       <c r="I4">
-        <v>0.209</v>
+        <v>0.206</v>
       </c>
       <c r="J4">
-        <v>0.661</v>
+        <v>0.655</v>
       </c>
     </row>
     <row r="5">
@@ -518,10 +518,10 @@
         </is>
       </c>
       <c r="B5">
-        <v>-0.148</v>
+        <v>-0.145</v>
       </c>
       <c r="C5">
-        <v>0.361</v>
+        <v>0.359</v>
       </c>
       <c r="D5">
         <v>0.001</v>
@@ -530,16 +530,16 @@
         <v>0.003</v>
       </c>
       <c r="F5">
-        <v>-0.858</v>
+        <v>-0.855</v>
       </c>
       <c r="G5">
-        <v>-0.388</v>
+        <v>-0.384</v>
       </c>
       <c r="H5">
-        <v>-0.147</v>
+        <v>-0.145</v>
       </c>
       <c r="I5">
-        <v>0.093</v>
+        <v>0.094</v>
       </c>
       <c r="J5">
         <v>0.5600000000000001</v>
@@ -552,7 +552,7 @@
         </is>
       </c>
       <c r="B6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -564,19 +564,19 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -586,7 +586,7 @@
         </is>
       </c>
       <c r="B7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -598,19 +598,19 @@
         <v>0</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J7">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -620,7 +620,7 @@
         </is>
       </c>
       <c r="B8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C8">
         <v>0</v>
@@ -632,19 +632,19 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J8">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -654,7 +654,7 @@
         </is>
       </c>
       <c r="B9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C9">
         <v>0</v>
@@ -666,19 +666,19 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J9">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -688,10 +688,10 @@
         </is>
       </c>
       <c r="B10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C10">
-        <v>0.005</v>
+        <v>0</v>
       </c>
       <c r="D10">
         <v>0</v>
@@ -700,19 +700,19 @@
         <v>0</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J10">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -722,10 +722,10 @@
         </is>
       </c>
       <c r="B11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C11">
-        <v>0.003</v>
+        <v>0</v>
       </c>
       <c r="D11">
         <v>0</v>
@@ -734,19 +734,19 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J11">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -756,10 +756,10 @@
         </is>
       </c>
       <c r="B12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C12">
-        <v>0.003</v>
+        <v>0</v>
       </c>
       <c r="D12">
         <v>0</v>
@@ -768,19 +768,19 @@
         <v>0</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J12">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -790,10 +790,10 @@
         </is>
       </c>
       <c r="B13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C13">
-        <v>0.003</v>
+        <v>0</v>
       </c>
       <c r="D13">
         <v>0</v>
@@ -802,19 +802,19 @@
         <v>0</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J13">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -824,10 +824,10 @@
         </is>
       </c>
       <c r="B14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C14">
-        <v>0.003</v>
+        <v>0.002</v>
       </c>
       <c r="D14">
         <v>0</v>
@@ -836,19 +836,19 @@
         <v>0</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J14">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -858,10 +858,10 @@
         </is>
       </c>
       <c r="B15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C15">
-        <v>0.002</v>
+        <v>0</v>
       </c>
       <c r="D15">
         <v>0</v>
@@ -870,19 +870,19 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J15">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -892,10 +892,10 @@
         </is>
       </c>
       <c r="B16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C16">
-        <v>0.008</v>
+        <v>0</v>
       </c>
       <c r="D16">
         <v>0</v>
@@ -904,19 +904,19 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J16">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -926,10 +926,10 @@
         </is>
       </c>
       <c r="B17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C17">
-        <v>0</v>
+        <v>0.003</v>
       </c>
       <c r="D17">
         <v>0</v>
@@ -938,19 +938,19 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J17">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -960,10 +960,10 @@
         </is>
       </c>
       <c r="B18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C18">
-        <v>0</v>
+        <v>0.012</v>
       </c>
       <c r="D18">
         <v>0</v>
@@ -972,19 +972,19 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J18">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -994,10 +994,10 @@
         </is>
       </c>
       <c r="B19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C19">
-        <v>0</v>
+        <v>0.008</v>
       </c>
       <c r="D19">
         <v>0</v>
@@ -1006,19 +1006,19 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J19">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -1028,10 +1028,10 @@
         </is>
       </c>
       <c r="B20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C20">
-        <v>0</v>
+        <v>0.007</v>
       </c>
       <c r="D20">
         <v>0</v>
@@ -1040,19 +1040,19 @@
         <v>0</v>
       </c>
       <c r="F20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J20">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -1062,10 +1062,10 @@
         </is>
       </c>
       <c r="B21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C21">
-        <v>0</v>
+        <v>0.004</v>
       </c>
       <c r="D21">
         <v>0</v>
@@ -1074,19 +1074,19 @@
         <v>0</v>
       </c>
       <c r="F21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J21">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -1096,10 +1096,10 @@
         </is>
       </c>
       <c r="B22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C22">
-        <v>0.003</v>
+        <v>0</v>
       </c>
       <c r="D22">
         <v>0</v>
@@ -1108,19 +1108,19 @@
         <v>0</v>
       </c>
       <c r="F22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J22">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -1130,10 +1130,10 @@
         </is>
       </c>
       <c r="B23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C23">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="D23">
         <v>0</v>
@@ -1142,19 +1142,19 @@
         <v>0</v>
       </c>
       <c r="F23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J23">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -1164,10 +1164,10 @@
         </is>
       </c>
       <c r="B24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C24">
-        <v>0.003</v>
+        <v>0.002</v>
       </c>
       <c r="D24">
         <v>0</v>
@@ -1176,19 +1176,19 @@
         <v>0</v>
       </c>
       <c r="F24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J24">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -1198,10 +1198,10 @@
         </is>
       </c>
       <c r="B25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C25">
-        <v>0</v>
+        <v>0.005</v>
       </c>
       <c r="D25">
         <v>0</v>
@@ -1210,19 +1210,19 @@
         <v>0</v>
       </c>
       <c r="F25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J25">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -1232,10 +1232,10 @@
         </is>
       </c>
       <c r="B26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C26">
-        <v>0</v>
+        <v>0.003</v>
       </c>
       <c r="D26">
         <v>0</v>
@@ -1244,19 +1244,19 @@
         <v>0</v>
       </c>
       <c r="F26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J26">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -1266,7 +1266,7 @@
         </is>
       </c>
       <c r="B27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C27">
         <v>0</v>
@@ -1278,19 +1278,19 @@
         <v>0</v>
       </c>
       <c r="F27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J27">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -1300,7 +1300,7 @@
         </is>
       </c>
       <c r="B28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C28">
         <v>0.002</v>
@@ -1312,19 +1312,19 @@
         <v>0</v>
       </c>
       <c r="F28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J28">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -1334,10 +1334,10 @@
         </is>
       </c>
       <c r="B29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C29">
-        <v>0</v>
+        <v>0.002</v>
       </c>
       <c r="D29">
         <v>0</v>
@@ -1346,19 +1346,19 @@
         <v>0</v>
       </c>
       <c r="F29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J29">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -1368,10 +1368,10 @@
         </is>
       </c>
       <c r="B30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C30">
-        <v>0.005</v>
+        <v>0.002</v>
       </c>
       <c r="D30">
         <v>0</v>
@@ -1380,19 +1380,19 @@
         <v>0</v>
       </c>
       <c r="F30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J30">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -1402,10 +1402,10 @@
         </is>
       </c>
       <c r="B31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C31">
-        <v>0.002</v>
+        <v>0</v>
       </c>
       <c r="D31">
         <v>0</v>
@@ -1414,19 +1414,19 @@
         <v>0</v>
       </c>
       <c r="F31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J31">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -1436,10 +1436,10 @@
         </is>
       </c>
       <c r="B32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C32">
-        <v>0.008</v>
+        <v>0</v>
       </c>
       <c r="D32">
         <v>0</v>
@@ -1448,19 +1448,19 @@
         <v>0</v>
       </c>
       <c r="F32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J32">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -1470,10 +1470,10 @@
         </is>
       </c>
       <c r="B33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C33">
-        <v>0.019</v>
+        <v>0</v>
       </c>
       <c r="D33">
         <v>0</v>
@@ -1482,19 +1482,19 @@
         <v>0</v>
       </c>
       <c r="F33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J33">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -1504,10 +1504,10 @@
         </is>
       </c>
       <c r="B34">
-        <v>1</v>
+        <v>0.001</v>
       </c>
       <c r="C34">
-        <v>0</v>
+        <v>0.037</v>
       </c>
       <c r="D34">
         <v>0</v>
@@ -1516,19 +1516,19 @@
         <v>0</v>
       </c>
       <c r="F34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J34">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -1538,10 +1538,10 @@
         </is>
       </c>
       <c r="B35">
-        <v>1</v>
+        <v>0.001</v>
       </c>
       <c r="C35">
-        <v>0</v>
+        <v>0.037</v>
       </c>
       <c r="D35">
         <v>0</v>
@@ -1550,19 +1550,19 @@
         <v>0</v>
       </c>
       <c r="F35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J35">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -1572,10 +1572,10 @@
         </is>
       </c>
       <c r="B36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C36">
-        <v>0</v>
+        <v>0.012</v>
       </c>
       <c r="D36">
         <v>0</v>
@@ -1584,19 +1584,19 @@
         <v>0</v>
       </c>
       <c r="F36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J36">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -1606,10 +1606,10 @@
         </is>
       </c>
       <c r="B37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C37">
-        <v>0.002</v>
+        <v>0.012</v>
       </c>
       <c r="D37">
         <v>0</v>
@@ -1618,19 +1618,19 @@
         <v>0</v>
       </c>
       <c r="F37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J37">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -1640,10 +1640,10 @@
         </is>
       </c>
       <c r="B38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C38">
-        <v>0.003</v>
+        <v>0.002</v>
       </c>
       <c r="D38">
         <v>0</v>
@@ -1652,19 +1652,19 @@
         <v>0</v>
       </c>
       <c r="F38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J38">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -1674,10 +1674,10 @@
         </is>
       </c>
       <c r="B39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C39">
-        <v>0.002</v>
+        <v>0</v>
       </c>
       <c r="D39">
         <v>0</v>
@@ -1686,19 +1686,19 @@
         <v>0</v>
       </c>
       <c r="F39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J39">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -1708,10 +1708,10 @@
         </is>
       </c>
       <c r="B40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C40">
-        <v>0.004</v>
+        <v>0</v>
       </c>
       <c r="D40">
         <v>0</v>
@@ -1720,19 +1720,19 @@
         <v>0</v>
       </c>
       <c r="F40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J40">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -1742,10 +1742,10 @@
         </is>
       </c>
       <c r="B41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C41">
-        <v>0.012</v>
+        <v>0</v>
       </c>
       <c r="D41">
         <v>0</v>
@@ -1754,19 +1754,19 @@
         <v>0</v>
       </c>
       <c r="F41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J41">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -1776,10 +1776,10 @@
         </is>
       </c>
       <c r="B42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C42">
-        <v>0</v>
+        <v>0.005</v>
       </c>
       <c r="D42">
         <v>0</v>
@@ -1788,19 +1788,19 @@
         <v>0</v>
       </c>
       <c r="F42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J42">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -1810,10 +1810,10 @@
         </is>
       </c>
       <c r="B43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C43">
-        <v>0</v>
+        <v>0.005</v>
       </c>
       <c r="D43">
         <v>0</v>
@@ -1822,19 +1822,19 @@
         <v>0</v>
       </c>
       <c r="F43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J43">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -1844,10 +1844,10 @@
         </is>
       </c>
       <c r="B44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C44">
-        <v>0.002</v>
+        <v>0</v>
       </c>
       <c r="D44">
         <v>0</v>
@@ -1856,19 +1856,19 @@
         <v>0</v>
       </c>
       <c r="F44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J44">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -1878,10 +1878,10 @@
         </is>
       </c>
       <c r="B45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C45">
-        <v>0.004</v>
+        <v>0</v>
       </c>
       <c r="D45">
         <v>0</v>
@@ -1890,19 +1890,19 @@
         <v>0</v>
       </c>
       <c r="F45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J45">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -1912,10 +1912,10 @@
         </is>
       </c>
       <c r="B46">
-        <v>0.999</v>
+        <v>0</v>
       </c>
       <c r="C46">
-        <v>0.038</v>
+        <v>0</v>
       </c>
       <c r="D46">
         <v>0</v>
@@ -1924,19 +1924,19 @@
         <v>0</v>
       </c>
       <c r="F46">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G46">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H46">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I46">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J46">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47">
@@ -1946,10 +1946,10 @@
         </is>
       </c>
       <c r="B47">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C47">
-        <v>0</v>
+        <v>0.002</v>
       </c>
       <c r="D47">
         <v>0</v>
@@ -1958,19 +1958,19 @@
         <v>0</v>
       </c>
       <c r="F47">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G47">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H47">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I47">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J47">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48">
@@ -1980,10 +1980,10 @@
         </is>
       </c>
       <c r="B48">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C48">
-        <v>0.003</v>
+        <v>0</v>
       </c>
       <c r="D48">
         <v>0</v>
@@ -1992,19 +1992,19 @@
         <v>0</v>
       </c>
       <c r="F48">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G48">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H48">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I48">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J48">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49">
@@ -2014,10 +2014,10 @@
         </is>
       </c>
       <c r="B49">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C49">
-        <v>0.004</v>
+        <v>0</v>
       </c>
       <c r="D49">
         <v>0</v>
@@ -2026,19 +2026,19 @@
         <v>0</v>
       </c>
       <c r="F49">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G49">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H49">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I49">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J49">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50">
@@ -2048,10 +2048,10 @@
         </is>
       </c>
       <c r="B50">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C50">
-        <v>0</v>
+        <v>0.003</v>
       </c>
       <c r="D50">
         <v>0</v>
@@ -2060,19 +2060,19 @@
         <v>0</v>
       </c>
       <c r="F50">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G50">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H50">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I50">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J50">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51">
@@ -2082,10 +2082,10 @@
         </is>
       </c>
       <c r="B51">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C51">
-        <v>0</v>
+        <v>0.003</v>
       </c>
       <c r="D51">
         <v>0</v>
@@ -2094,19 +2094,19 @@
         <v>0</v>
       </c>
       <c r="F51">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G51">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H51">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I51">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J51">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52">
@@ -2116,10 +2116,10 @@
         </is>
       </c>
       <c r="B52">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C52">
-        <v>0</v>
+        <v>0.004</v>
       </c>
       <c r="D52">
         <v>0</v>
@@ -2128,19 +2128,19 @@
         <v>0</v>
       </c>
       <c r="F52">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G52">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H52">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I52">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J52">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53">
@@ -2150,10 +2150,10 @@
         </is>
       </c>
       <c r="B53">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C53">
-        <v>0</v>
+        <v>0.002</v>
       </c>
       <c r="D53">
         <v>0</v>
@@ -2162,19 +2162,19 @@
         <v>0</v>
       </c>
       <c r="F53">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G53">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H53">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I53">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J53">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54">
@@ -2184,10 +2184,10 @@
         </is>
       </c>
       <c r="B54">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C54">
-        <v>0</v>
+        <v>0.004</v>
       </c>
       <c r="D54">
         <v>0</v>
@@ -2196,19 +2196,19 @@
         <v>0</v>
       </c>
       <c r="F54">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G54">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H54">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I54">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J54">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55">
@@ -2218,7 +2218,7 @@
         </is>
       </c>
       <c r="B55">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C55">
         <v>0</v>
@@ -2230,19 +2230,19 @@
         <v>0</v>
       </c>
       <c r="F55">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G55">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H55">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I55">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J55">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56">
@@ -2252,10 +2252,10 @@
         </is>
       </c>
       <c r="B56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C56">
-        <v>0.003</v>
+        <v>0</v>
       </c>
       <c r="D56">
         <v>0</v>
@@ -2264,19 +2264,19 @@
         <v>0</v>
       </c>
       <c r="F56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J56">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57">
@@ -2286,10 +2286,10 @@
         </is>
       </c>
       <c r="B57">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C57">
-        <v>0.003</v>
+        <v>0</v>
       </c>
       <c r="D57">
         <v>0</v>
@@ -2298,19 +2298,19 @@
         <v>0</v>
       </c>
       <c r="F57">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G57">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H57">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I57">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J57">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58">
@@ -2320,10 +2320,10 @@
         </is>
       </c>
       <c r="B58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C58">
-        <v>0</v>
+        <v>0.004</v>
       </c>
       <c r="D58">
         <v>0</v>
@@ -2332,19 +2332,19 @@
         <v>0</v>
       </c>
       <c r="F58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J58">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59">
@@ -2354,10 +2354,10 @@
         </is>
       </c>
       <c r="B59">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C59">
-        <v>0</v>
+        <v>0.006</v>
       </c>
       <c r="D59">
         <v>0</v>
@@ -2366,19 +2366,19 @@
         <v>0</v>
       </c>
       <c r="F59">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G59">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H59">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I59">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J59">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60">
@@ -2388,10 +2388,10 @@
         </is>
       </c>
       <c r="B60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C60">
-        <v>0</v>
+        <v>0.006</v>
       </c>
       <c r="D60">
         <v>0</v>
@@ -2400,19 +2400,19 @@
         <v>0</v>
       </c>
       <c r="F60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J60">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61">
@@ -2422,10 +2422,10 @@
         </is>
       </c>
       <c r="B61">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C61">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="D61">
         <v>0</v>
@@ -2434,19 +2434,19 @@
         <v>0</v>
       </c>
       <c r="F61">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G61">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H61">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I61">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J61">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62">
@@ -2456,10 +2456,10 @@
         </is>
       </c>
       <c r="B62">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C62">
-        <v>0.006</v>
+        <v>0</v>
       </c>
       <c r="D62">
         <v>0</v>
@@ -2468,19 +2468,19 @@
         <v>0</v>
       </c>
       <c r="F62">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G62">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H62">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I62">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J62">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63">
@@ -2490,7 +2490,7 @@
         </is>
       </c>
       <c r="B63">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C63">
         <v>0</v>
@@ -2502,19 +2502,19 @@
         <v>0</v>
       </c>
       <c r="F63">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G63">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H63">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I63">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J63">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64">
@@ -2524,10 +2524,10 @@
         </is>
       </c>
       <c r="B64">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C64">
-        <v>0.003</v>
+        <v>0</v>
       </c>
       <c r="D64">
         <v>0</v>
@@ -2536,19 +2536,19 @@
         <v>0</v>
       </c>
       <c r="F64">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G64">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H64">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I64">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J64">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65">
@@ -2558,10 +2558,10 @@
         </is>
       </c>
       <c r="B65">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C65">
-        <v>0</v>
+        <v>0.007</v>
       </c>
       <c r="D65">
         <v>0</v>
@@ -2570,19 +2570,19 @@
         <v>0</v>
       </c>
       <c r="F65">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G65">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H65">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I65">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J65">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66">
@@ -2592,10 +2592,10 @@
         </is>
       </c>
       <c r="B66">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C66">
-        <v>0.002</v>
+        <v>0.004</v>
       </c>
       <c r="D66">
         <v>0</v>
@@ -2604,19 +2604,19 @@
         <v>0</v>
       </c>
       <c r="F66">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G66">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H66">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I66">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J66">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67">
@@ -2626,10 +2626,10 @@
         </is>
       </c>
       <c r="B67">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C67">
-        <v>0.002</v>
+        <v>0</v>
       </c>
       <c r="D67">
         <v>0</v>
@@ -2638,19 +2638,19 @@
         <v>0</v>
       </c>
       <c r="F67">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G67">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H67">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I67">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J67">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68">
@@ -2660,10 +2660,10 @@
         </is>
       </c>
       <c r="B68">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C68">
-        <v>0</v>
+        <v>0.003</v>
       </c>
       <c r="D68">
         <v>0</v>
@@ -2672,19 +2672,19 @@
         <v>0</v>
       </c>
       <c r="F68">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G68">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H68">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I68">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J68">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69">
@@ -2694,10 +2694,10 @@
         </is>
       </c>
       <c r="B69">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C69">
-        <v>0</v>
+        <v>0.005</v>
       </c>
       <c r="D69">
         <v>0</v>
@@ -2706,19 +2706,19 @@
         <v>0</v>
       </c>
       <c r="F69">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G69">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H69">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I69">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J69">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70">
@@ -2728,10 +2728,10 @@
         </is>
       </c>
       <c r="B70">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C70">
-        <v>0.016</v>
+        <v>0</v>
       </c>
       <c r="D70">
         <v>0</v>
@@ -2740,19 +2740,19 @@
         <v>0</v>
       </c>
       <c r="F70">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G70">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H70">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I70">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J70">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71">
@@ -2762,10 +2762,10 @@
         </is>
       </c>
       <c r="B71">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C71">
-        <v>0</v>
+        <v>0.005</v>
       </c>
       <c r="D71">
         <v>0</v>
@@ -2774,19 +2774,19 @@
         <v>0</v>
       </c>
       <c r="F71">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G71">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H71">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I71">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J71">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72">
@@ -2796,10 +2796,10 @@
         </is>
       </c>
       <c r="B72">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C72">
-        <v>0.003</v>
+        <v>0</v>
       </c>
       <c r="D72">
         <v>0</v>
@@ -2808,19 +2808,19 @@
         <v>0</v>
       </c>
       <c r="F72">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G72">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H72">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I72">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J72">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73">
@@ -2830,10 +2830,10 @@
         </is>
       </c>
       <c r="B73">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C73">
-        <v>0.002</v>
+        <v>0</v>
       </c>
       <c r="D73">
         <v>0</v>
@@ -2842,19 +2842,19 @@
         <v>0</v>
       </c>
       <c r="F73">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G73">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H73">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I73">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J73">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74">
@@ -2864,10 +2864,10 @@
         </is>
       </c>
       <c r="B74">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C74">
-        <v>0</v>
+        <v>0.005</v>
       </c>
       <c r="D74">
         <v>0</v>
@@ -2876,19 +2876,19 @@
         <v>0</v>
       </c>
       <c r="F74">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G74">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H74">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I74">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J74">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75">
@@ -2898,10 +2898,10 @@
         </is>
       </c>
       <c r="B75">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C75">
-        <v>0</v>
+        <v>0.006</v>
       </c>
       <c r="D75">
         <v>0</v>
@@ -2910,19 +2910,19 @@
         <v>0</v>
       </c>
       <c r="F75">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G75">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H75">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I75">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J75">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76">
@@ -2932,7 +2932,7 @@
         </is>
       </c>
       <c r="B76">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C76">
         <v>0</v>
@@ -2944,19 +2944,19 @@
         <v>0</v>
       </c>
       <c r="F76">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G76">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H76">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I76">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J76">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77">
@@ -2966,10 +2966,10 @@
         </is>
       </c>
       <c r="B77">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C77">
-        <v>0</v>
+        <v>0.007</v>
       </c>
       <c r="D77">
         <v>0</v>
@@ -2978,19 +2978,19 @@
         <v>0</v>
       </c>
       <c r="F77">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G77">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H77">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I77">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J77">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78">
@@ -3000,10 +3000,10 @@
         </is>
       </c>
       <c r="B78">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C78">
-        <v>0</v>
+        <v>0.007</v>
       </c>
       <c r="D78">
         <v>0</v>
@@ -3012,19 +3012,19 @@
         <v>0</v>
       </c>
       <c r="F78">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G78">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H78">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I78">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J78">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79">
@@ -3034,10 +3034,10 @@
         </is>
       </c>
       <c r="B79">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C79">
-        <v>0</v>
+        <v>0.012</v>
       </c>
       <c r="D79">
         <v>0</v>
@@ -3046,19 +3046,19 @@
         <v>0</v>
       </c>
       <c r="F79">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G79">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H79">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I79">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J79">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80">
@@ -3068,10 +3068,10 @@
         </is>
       </c>
       <c r="B80">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C80">
-        <v>0</v>
+        <v>0.007</v>
       </c>
       <c r="D80">
         <v>0</v>
@@ -3080,19 +3080,19 @@
         <v>0</v>
       </c>
       <c r="F80">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G80">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H80">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I80">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J80">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81">
@@ -3102,10 +3102,10 @@
         </is>
       </c>
       <c r="B81">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C81">
-        <v>0</v>
+        <v>0.005</v>
       </c>
       <c r="D81">
         <v>0</v>
@@ -3114,19 +3114,19 @@
         <v>0</v>
       </c>
       <c r="F81">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G81">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H81">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I81">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J81">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82">
@@ -3136,10 +3136,10 @@
         </is>
       </c>
       <c r="B82">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C82">
-        <v>0</v>
+        <v>0.004</v>
       </c>
       <c r="D82">
         <v>0</v>
@@ -3148,19 +3148,19 @@
         <v>0</v>
       </c>
       <c r="F82">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G82">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H82">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I82">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J82">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83">
@@ -3170,10 +3170,10 @@
         </is>
       </c>
       <c r="B83">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C83">
-        <v>0</v>
+        <v>0.005</v>
       </c>
       <c r="D83">
         <v>0</v>
@@ -3182,19 +3182,19 @@
         <v>0</v>
       </c>
       <c r="F83">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G83">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H83">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I83">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J83">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84">
@@ -3204,10 +3204,10 @@
         </is>
       </c>
       <c r="B84">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C84">
-        <v>0</v>
+        <v>0.007</v>
       </c>
       <c r="D84">
         <v>0</v>
@@ -3216,19 +3216,19 @@
         <v>0</v>
       </c>
       <c r="F84">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G84">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H84">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I84">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J84">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85">
@@ -3238,10 +3238,10 @@
         </is>
       </c>
       <c r="B85">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C85">
-        <v>0</v>
+        <v>0.015</v>
       </c>
       <c r="D85">
         <v>0</v>
@@ -3250,19 +3250,19 @@
         <v>0</v>
       </c>
       <c r="F85">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G85">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H85">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I85">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J85">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86">
@@ -3272,10 +3272,10 @@
         </is>
       </c>
       <c r="B86">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C86">
-        <v>0.004</v>
+        <v>0</v>
       </c>
       <c r="D86">
         <v>0</v>
@@ -3284,19 +3284,19 @@
         <v>0</v>
       </c>
       <c r="F86">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G86">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H86">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I86">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J86">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87">
@@ -3306,10 +3306,10 @@
         </is>
       </c>
       <c r="B87">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C87">
-        <v>0</v>
+        <v>0.003</v>
       </c>
       <c r="D87">
         <v>0</v>
@@ -3318,19 +3318,19 @@
         <v>0</v>
       </c>
       <c r="F87">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G87">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H87">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I87">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J87">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88">
@@ -3340,10 +3340,10 @@
         </is>
       </c>
       <c r="B88">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C88">
-        <v>0.003</v>
+        <v>0</v>
       </c>
       <c r="D88">
         <v>0</v>
@@ -3352,19 +3352,19 @@
         <v>0</v>
       </c>
       <c r="F88">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G88">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H88">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I88">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J88">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89">
@@ -3374,10 +3374,10 @@
         </is>
       </c>
       <c r="B89">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C89">
-        <v>0.003</v>
+        <v>0</v>
       </c>
       <c r="D89">
         <v>0</v>
@@ -3386,19 +3386,19 @@
         <v>0</v>
       </c>
       <c r="F89">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G89">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H89">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I89">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J89">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
